--- a/Guatemala/CENSO 2018/Cuadro A2 - Población según parentesco con el jefe(a) del hogar.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A2 - Población según parentesco con el jefe(a) del hogar.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Comunicaciones REDD Dropbox\Patricio Emanuelli\0000 DOCUMENTACIÓN REDD+ Guatemala\MRV_REDD_Guatemala\BD_GT\CENSO 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CCB2E-44A2-422F-AA08-3F61E0D477FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6515CCE5-81F2-44BC-A10D-D2E4306E42CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A2_1" sheetId="2" r:id="rId1"/>
     <sheet name="A2_2" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A2_1!$1:$6</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="377">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1170,7 +1171,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1235,7 +1236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,8 +1248,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1295,13 +1302,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1373,18 +1391,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1407,11 +1413,29 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1437,7 +1461,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1464,56 +1488,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1917,6 +1891,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1931,25 +1955,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B29D948-C1FE-4554-BF39-31616D79DA5A}" name="Población_según_parentesco" displayName="Población_según_parentesco" ref="A5:Q345" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B29D948-C1FE-4554-BF39-31616D79DA5A}" name="Población_según_parentesco" displayName="Población_según_parentesco" ref="A5:Q345" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A5:Q345" xr:uid="{829F204A-FCD4-4375-B33A-9E1B94FA919E}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{DD17A411-8E37-4A5C-8B8D-EF640A7E3BD6}" name="Código" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{740DC40F-C1E7-4703-AC5D-B9B5EC66B86F}" name="Departamento" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{01FB0D30-0819-4D86-82A4-E56510BCEEB5}" name="Código2" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{33F385BB-222C-4993-823D-1CD8E4C91AED}" name="Municipio" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{C46CC442-9152-403D-B4D6-6D689D4B3081}" name="Población total" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{961D07CC-8E38-4EE6-AD6A-8DFC8F5630CF}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{4602C755-1666-4579-898B-6DF37D0EC711}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{54344838-042B-432A-947A-BF7DF86C536F}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{16C7BEE0-C60C-4F7D-87DB-3843EE8CC9A0}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{0E322C22-C35E-46F1-AC9F-9CF0B342846D}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar6" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{4B22D5CE-C9B8-4B2A-A3BF-2935D31D94B6}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar7" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{FEFB8727-9BD1-4F37-8283-AD6AE045ED0F}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar8" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{3D5BC288-C15D-4981-A75B-B6F7A5C96C38}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar9" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{A0E104F5-4FF5-4E49-B367-B323681EEFE7}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar10" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{F2649529-BA6B-4EF3-A163-BCAAAC3F7CC2}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar11" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{CE3E112B-B4C1-44BD-8261-A32D831BA607}" name="Parentesco con el Jefe(a) del hogar: Jefe(a) de hogar12" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DD17A411-8E37-4A5C-8B8D-EF640A7E3BD6}" name="Código" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{740DC40F-C1E7-4703-AC5D-B9B5EC66B86F}" name="Departamento" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{01FB0D30-0819-4D86-82A4-E56510BCEEB5}" name="Código2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{33F385BB-222C-4993-823D-1CD8E4C91AED}" name="Municipio" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{C46CC442-9152-403D-B4D6-6D689D4B3081}" name="Población total" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{961D07CC-8E38-4EE6-AD6A-8DFC8F5630CF}" name="Jefe(a) de hogar" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{4602C755-1666-4579-898B-6DF37D0EC711}" name="  Esposa(o) o pareja" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{54344838-042B-432A-947A-BF7DF86C536F}" name="Hija(o) hijastra(o)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{16C7BEE0-C60C-4F7D-87DB-3843EE8CC9A0}" name="Nuera o yerno" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{0E322C22-C35E-46F1-AC9F-9CF0B342846D}" name="Nieta o nieto" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{4B22D5CE-C9B8-4B2A-A3BF-2935D31D94B6}" name="Hermana o hermano" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{FEFB8727-9BD1-4F37-8283-AD6AE045ED0F}" name="Madre o padre" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{3D5BC288-C15D-4981-A75B-B6F7A5C96C38}" name="Suegra o suegro" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{A0E104F5-4FF5-4E49-B367-B323681EEFE7}" name="Cuñada o cuñado" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{F2649529-BA6B-4EF3-A163-BCAAAC3F7CC2}" name="Otra(o) pariente" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{CE3E112B-B4C1-44BD-8261-A32D831BA607}" name="No parientes" dataDxfId="1"/>
     <tableColumn id="17" xr3:uid="{FDA87F08-B4DD-4DDD-B91A-4A7A045648B5}" name="Población en viviendas colectivas o en situación de calle" dataDxfId="0" dataCellStyle="Millares"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2225,62 +2249,62 @@
   <dimension ref="A1:AB39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D6" sqref="D6:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="11" style="15" customWidth="1"/>
-    <col min="4" max="14" width="12.5703125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="14" width="12.5546875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
+    <row r="6" spans="1:21" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -2314,9 +2338,9 @@
       <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="23"/>
@@ -2339,7 +2363,7 @@
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
     </row>
-    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
         <v>364</v>
@@ -2387,8 +2411,8 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
     </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -2435,7 +2459,7 @@
         <v>20418</v>
       </c>
     </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -2482,7 +2506,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>3</v>
       </c>
@@ -2529,7 +2553,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>4</v>
       </c>
@@ -2576,7 +2600,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>5</v>
       </c>
@@ -2623,7 +2647,7 @@
         <v>6086</v>
       </c>
     </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>6</v>
       </c>
@@ -2670,7 +2694,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>7</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>8</v>
       </c>
@@ -2764,7 +2788,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>9</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>10</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>11</v>
       </c>
@@ -2905,7 +2929,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>12</v>
       </c>
@@ -2952,7 +2976,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>13</v>
       </c>
@@ -2999,7 +3023,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>14</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>15</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>16</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>17</v>
       </c>
@@ -3187,7 +3211,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>18</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>19</v>
       </c>
@@ -3281,7 +3305,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>20</v>
       </c>
@@ -3333,7 +3357,7 @@
       <c r="T29" s="28"/>
       <c r="U29" s="28"/>
     </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>21</v>
       </c>
@@ -3385,7 +3409,7 @@
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
     </row>
-    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>22</v>
       </c>
@@ -3438,7 +3462,7 @@
       <c r="T31" s="28"/>
       <c r="U31" s="28"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="32"/>
@@ -3468,7 +3492,7 @@
       <c r="AA32" s="34"/>
       <c r="AB32" s="34"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>362</v>
       </c>
@@ -3500,7 +3524,7 @@
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P34" s="34"/>
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
@@ -3515,7 +3539,7 @@
       <c r="AA34" s="34"/>
       <c r="AB34" s="34"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="34"/>
@@ -3530,7 +3554,7 @@
       <c r="AA35" s="34"/>
       <c r="AB35" s="34"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P36" s="34"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
@@ -3545,7 +3569,7 @@
       <c r="AA36" s="34"/>
       <c r="AB36" s="34"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
       <c r="R37" s="34"/>
@@ -3560,7 +3584,7 @@
       <c r="AA37" s="34"/>
       <c r="AB37" s="34"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
       <c r="R38" s="34"/>
@@ -3575,7 +3599,7 @@
       <c r="AA38" s="34"/>
       <c r="AB38" s="34"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="P39" s="34"/>
       <c r="Q39" s="34"/>
       <c r="R39" s="34"/>
@@ -3616,25 +3640,33 @@
   </sheetPr>
   <dimension ref="A1:Q346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" style="15" customWidth="1"/>
-    <col min="7" max="13" width="50.42578125" style="15" customWidth="1"/>
-    <col min="14" max="16" width="51.42578125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="52.5703125" style="15" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="10.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.5546875" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,81 +3675,81 @@
       <c r="D1" s="4"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F4" s="39" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>365</v>
+        <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>372</v>
+        <v>14</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>373</v>
+        <v>15</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3766,11 +3798,11 @@
       <c r="P6" s="14">
         <v>17000</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="43">
         <v>12577</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -3819,11 +3851,11 @@
       <c r="P7" s="14">
         <v>1728</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="43">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -3872,11 +3904,11 @@
       <c r="P8" s="14">
         <v>738</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="43">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -3925,11 +3957,11 @@
       <c r="P9" s="14">
         <v>43</v>
       </c>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>1</v>
       </c>
@@ -3978,11 +4010,11 @@
       <c r="P10" s="14">
         <v>337</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="43">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>1</v>
       </c>
@@ -4031,11 +4063,11 @@
       <c r="P11" s="14">
         <v>784</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>1</v>
       </c>
@@ -4084,11 +4116,11 @@
       <c r="P12" s="14">
         <v>421</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="43">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -4137,11 +4169,11 @@
       <c r="P13" s="14">
         <v>7574</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="43">
         <v>1578</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -4190,11 +4222,11 @@
       <c r="P14" s="14">
         <v>254</v>
       </c>
-      <c r="Q14" s="47" t="s">
+      <c r="Q14" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>1</v>
       </c>
@@ -4243,11 +4275,11 @@
       <c r="P15" s="14">
         <v>1732</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -4296,11 +4328,11 @@
       <c r="P16" s="14">
         <v>163</v>
       </c>
-      <c r="Q16" s="47" t="s">
+      <c r="Q16" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -4349,11 +4381,11 @@
       <c r="P17" s="14">
         <v>47</v>
       </c>
-      <c r="Q17" s="47" t="s">
+      <c r="Q17" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
@@ -4402,11 +4434,11 @@
       <c r="P18" s="14">
         <v>947</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="43">
         <v>5642</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>1</v>
       </c>
@@ -4455,11 +4487,11 @@
       <c r="P19" s="14">
         <v>982</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="43">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>1</v>
       </c>
@@ -4508,11 +4540,11 @@
       <c r="P20" s="14">
         <v>5053</v>
       </c>
-      <c r="Q20" s="47" t="s">
+      <c r="Q20" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -4561,11 +4593,11 @@
       <c r="P21" s="14">
         <v>1172</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="43">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>1</v>
       </c>
@@ -4614,11 +4646,11 @@
       <c r="P22" s="14">
         <v>1374</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="43">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2</v>
       </c>
@@ -4667,11 +4699,11 @@
       <c r="P23" s="14">
         <v>203</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>2</v>
       </c>
@@ -4720,11 +4752,11 @@
       <c r="P24" s="14">
         <v>75</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>2</v>
       </c>
@@ -4773,11 +4805,11 @@
       <c r="P25" s="14">
         <v>273</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="43">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2</v>
       </c>
@@ -4826,11 +4858,11 @@
       <c r="P26" s="14">
         <v>66</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -4879,11 +4911,11 @@
       <c r="P27" s="14">
         <v>64</v>
       </c>
-      <c r="Q27" s="47">
+      <c r="Q27" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>2</v>
       </c>
@@ -4932,11 +4964,11 @@
       <c r="P28" s="14">
         <v>110</v>
       </c>
-      <c r="Q28" s="47">
+      <c r="Q28" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>2</v>
       </c>
@@ -4985,11 +5017,11 @@
       <c r="P29" s="14">
         <v>291</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="43">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>2</v>
       </c>
@@ -5038,11 +5070,11 @@
       <c r="P30" s="14">
         <v>126</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="43">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>3</v>
       </c>
@@ -5091,11 +5123,11 @@
       <c r="P31" s="14">
         <v>619</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="43">
         <v>913</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>3</v>
       </c>
@@ -5144,11 +5176,11 @@
       <c r="P32" s="14">
         <v>231</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="43">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>3</v>
       </c>
@@ -5197,11 +5229,11 @@
       <c r="P33" s="14">
         <v>102</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="43">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>3</v>
       </c>
@@ -5250,11 +5282,11 @@
       <c r="P34" s="14">
         <v>258</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="43">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>3</v>
       </c>
@@ -5303,11 +5335,11 @@
       <c r="P35" s="14">
         <v>84</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>3</v>
       </c>
@@ -5356,11 +5388,11 @@
       <c r="P36" s="14">
         <v>273</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="43">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>3</v>
       </c>
@@ -5409,11 +5441,11 @@
       <c r="P37" s="14">
         <v>54</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="43">
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>3</v>
       </c>
@@ -5462,11 +5494,11 @@
       <c r="P38" s="14">
         <v>322</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="43">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>3</v>
       </c>
@@ -5515,11 +5547,11 @@
       <c r="P39" s="14">
         <v>165</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="43">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>3</v>
       </c>
@@ -5568,11 +5600,11 @@
       <c r="P40" s="14">
         <v>80</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>3</v>
       </c>
@@ -5621,11 +5653,11 @@
       <c r="P41" s="14">
         <v>66</v>
       </c>
-      <c r="Q41" s="47">
+      <c r="Q41" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>3</v>
       </c>
@@ -5674,11 +5706,11 @@
       <c r="P42" s="14">
         <v>255</v>
       </c>
-      <c r="Q42" s="47">
+      <c r="Q42" s="43">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>3</v>
       </c>
@@ -5727,11 +5759,11 @@
       <c r="P43" s="14">
         <v>85</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="Q43" s="43">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>3</v>
       </c>
@@ -5780,11 +5812,11 @@
       <c r="P44" s="14">
         <v>99</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q44" s="43">
         <v>578</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>3</v>
       </c>
@@ -5833,11 +5865,11 @@
       <c r="P45" s="14">
         <v>63</v>
       </c>
-      <c r="Q45" s="47">
+      <c r="Q45" s="43">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>3</v>
       </c>
@@ -5886,11 +5918,11 @@
       <c r="P46" s="14">
         <v>17</v>
       </c>
-      <c r="Q46" s="47" t="s">
+      <c r="Q46" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>4</v>
       </c>
@@ -5939,11 +5971,11 @@
       <c r="P47" s="14">
         <v>683</v>
       </c>
-      <c r="Q47" s="47">
+      <c r="Q47" s="43">
         <v>1005</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>4</v>
       </c>
@@ -5992,11 +6024,11 @@
       <c r="P48" s="14">
         <v>85</v>
       </c>
-      <c r="Q48" s="47">
+      <c r="Q48" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>4</v>
       </c>
@@ -6045,11 +6077,11 @@
       <c r="P49" s="14">
         <v>365</v>
       </c>
-      <c r="Q49" s="47">
+      <c r="Q49" s="43">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>4</v>
       </c>
@@ -6098,11 +6130,11 @@
       <c r="P50" s="14">
         <v>179</v>
       </c>
-      <c r="Q50" s="47">
+      <c r="Q50" s="43">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>4</v>
       </c>
@@ -6151,11 +6183,11 @@
       <c r="P51" s="14">
         <v>54</v>
       </c>
-      <c r="Q51" s="47">
+      <c r="Q51" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>4</v>
       </c>
@@ -6204,11 +6236,11 @@
       <c r="P52" s="14">
         <v>296</v>
       </c>
-      <c r="Q52" s="47">
+      <c r="Q52" s="43">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>4</v>
       </c>
@@ -6257,11 +6289,11 @@
       <c r="P53" s="14">
         <v>128</v>
       </c>
-      <c r="Q53" s="47">
+      <c r="Q53" s="43">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>4</v>
       </c>
@@ -6310,11 +6342,11 @@
       <c r="P54" s="14">
         <v>39</v>
       </c>
-      <c r="Q54" s="47">
+      <c r="Q54" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>4</v>
       </c>
@@ -6363,11 +6395,11 @@
       <c r="P55" s="14">
         <v>98</v>
       </c>
-      <c r="Q55" s="47">
+      <c r="Q55" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>4</v>
       </c>
@@ -6416,11 +6448,11 @@
       <c r="P56" s="14">
         <v>47</v>
       </c>
-      <c r="Q56" s="47">
+      <c r="Q56" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>4</v>
       </c>
@@ -6469,11 +6501,11 @@
       <c r="P57" s="14">
         <v>142</v>
       </c>
-      <c r="Q57" s="47">
+      <c r="Q57" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>4</v>
       </c>
@@ -6522,11 +6554,11 @@
       <c r="P58" s="14">
         <v>101</v>
       </c>
-      <c r="Q58" s="47">
+      <c r="Q58" s="43">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>4</v>
       </c>
@@ -6575,11 +6607,11 @@
       <c r="P59" s="14">
         <v>117</v>
       </c>
-      <c r="Q59" s="47">
+      <c r="Q59" s="43">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>4</v>
       </c>
@@ -6628,11 +6660,11 @@
       <c r="P60" s="14">
         <v>125</v>
       </c>
-      <c r="Q60" s="47">
+      <c r="Q60" s="43">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>4</v>
       </c>
@@ -6681,11 +6713,11 @@
       <c r="P61" s="14">
         <v>97</v>
       </c>
-      <c r="Q61" s="47">
+      <c r="Q61" s="43">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>4</v>
       </c>
@@ -6734,11 +6766,11 @@
       <c r="P62" s="14">
         <v>125</v>
       </c>
-      <c r="Q62" s="47">
+      <c r="Q62" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>5</v>
       </c>
@@ -6787,11 +6819,11 @@
       <c r="P63" s="14">
         <v>1332</v>
       </c>
-      <c r="Q63" s="47">
+      <c r="Q63" s="43">
         <v>5568</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>5</v>
       </c>
@@ -6840,11 +6872,11 @@
       <c r="P64" s="14">
         <v>905</v>
       </c>
-      <c r="Q64" s="47">
+      <c r="Q64" s="43">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>5</v>
       </c>
@@ -6893,11 +6925,11 @@
       <c r="P65" s="14">
         <v>163</v>
       </c>
-      <c r="Q65" s="47">
+      <c r="Q65" s="43">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>5</v>
       </c>
@@ -6946,11 +6978,11 @@
       <c r="P66" s="14">
         <v>121</v>
       </c>
-      <c r="Q66" s="47">
+      <c r="Q66" s="43">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>5</v>
       </c>
@@ -6999,11 +7031,11 @@
       <c r="P67" s="14">
         <v>345</v>
       </c>
-      <c r="Q67" s="47">
+      <c r="Q67" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>5</v>
       </c>
@@ -7052,11 +7084,11 @@
       <c r="P68" s="14">
         <v>550</v>
       </c>
-      <c r="Q68" s="47">
+      <c r="Q68" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>5</v>
       </c>
@@ -7105,11 +7137,11 @@
       <c r="P69" s="14">
         <v>477</v>
       </c>
-      <c r="Q69" s="47">
+      <c r="Q69" s="43">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>5</v>
       </c>
@@ -7158,11 +7190,11 @@
       <c r="P70" s="14">
         <v>333</v>
       </c>
-      <c r="Q70" s="47">
+      <c r="Q70" s="43">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>5</v>
       </c>
@@ -7211,11 +7243,11 @@
       <c r="P71" s="14">
         <v>502</v>
       </c>
-      <c r="Q71" s="47" t="s">
+      <c r="Q71" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>5</v>
       </c>
@@ -7264,11 +7296,11 @@
       <c r="P72" s="14">
         <v>187</v>
       </c>
-      <c r="Q72" s="47" t="s">
+      <c r="Q72" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>5</v>
       </c>
@@ -7317,11 +7349,11 @@
       <c r="P73" s="14">
         <v>546</v>
       </c>
-      <c r="Q73" s="47">
+      <c r="Q73" s="43">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>5</v>
       </c>
@@ -7370,11 +7402,11 @@
       <c r="P74" s="14">
         <v>102</v>
       </c>
-      <c r="Q74" s="47" t="s">
+      <c r="Q74" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>5</v>
       </c>
@@ -7423,11 +7455,11 @@
       <c r="P75" s="14">
         <v>595</v>
       </c>
-      <c r="Q75" s="47">
+      <c r="Q75" s="43">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>5</v>
       </c>
@@ -7476,11 +7508,11 @@
       <c r="P76" s="14">
         <v>192</v>
       </c>
-      <c r="Q76" s="47">
+      <c r="Q76" s="43">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>6</v>
       </c>
@@ -7529,11 +7561,11 @@
       <c r="P77" s="14">
         <v>300</v>
       </c>
-      <c r="Q77" s="47">
+      <c r="Q77" s="43">
         <v>717</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>6</v>
       </c>
@@ -7582,11 +7614,11 @@
       <c r="P78" s="14">
         <v>365</v>
       </c>
-      <c r="Q78" s="47">
+      <c r="Q78" s="43">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>6</v>
       </c>
@@ -7635,11 +7667,11 @@
       <c r="P79" s="14">
         <v>115</v>
       </c>
-      <c r="Q79" s="47">
+      <c r="Q79" s="43">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>6</v>
       </c>
@@ -7688,11 +7720,11 @@
       <c r="P80" s="14">
         <v>135</v>
       </c>
-      <c r="Q80" s="47">
+      <c r="Q80" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>6</v>
       </c>
@@ -7741,11 +7773,11 @@
       <c r="P81" s="14">
         <v>88</v>
       </c>
-      <c r="Q81" s="47" t="s">
+      <c r="Q81" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>6</v>
       </c>
@@ -7794,11 +7826,11 @@
       <c r="P82" s="14">
         <v>128</v>
       </c>
-      <c r="Q82" s="47">
+      <c r="Q82" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>6</v>
       </c>
@@ -7847,11 +7879,11 @@
       <c r="P83" s="14">
         <v>32</v>
       </c>
-      <c r="Q83" s="47" t="s">
+      <c r="Q83" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>6</v>
       </c>
@@ -7900,11 +7932,11 @@
       <c r="P84" s="14">
         <v>473</v>
       </c>
-      <c r="Q84" s="47" t="s">
+      <c r="Q84" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>6</v>
       </c>
@@ -7953,11 +7985,11 @@
       <c r="P85" s="14">
         <v>258</v>
       </c>
-      <c r="Q85" s="47">
+      <c r="Q85" s="43">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>6</v>
       </c>
@@ -8006,11 +8038,11 @@
       <c r="P86" s="14">
         <v>127</v>
       </c>
-      <c r="Q86" s="47">
+      <c r="Q86" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>6</v>
       </c>
@@ -8059,11 +8091,11 @@
       <c r="P87" s="14">
         <v>137</v>
       </c>
-      <c r="Q87" s="47" t="s">
+      <c r="Q87" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>6</v>
       </c>
@@ -8112,11 +8144,11 @@
       <c r="P88" s="14">
         <v>96</v>
       </c>
-      <c r="Q88" s="47">
+      <c r="Q88" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>6</v>
       </c>
@@ -8165,11 +8197,11 @@
       <c r="P89" s="14">
         <v>170</v>
       </c>
-      <c r="Q89" s="47">
+      <c r="Q89" s="43">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>6</v>
       </c>
@@ -8218,11 +8250,11 @@
       <c r="P90" s="14">
         <v>184</v>
       </c>
-      <c r="Q90" s="47">
+      <c r="Q90" s="43">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>7</v>
       </c>
@@ -8271,11 +8303,11 @@
       <c r="P91" s="14">
         <v>418</v>
       </c>
-      <c r="Q91" s="47">
+      <c r="Q91" s="43">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>7</v>
       </c>
@@ -8324,11 +8356,11 @@
       <c r="P92" s="14">
         <v>20</v>
       </c>
-      <c r="Q92" s="47" t="s">
+      <c r="Q92" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>7</v>
       </c>
@@ -8377,11 +8409,11 @@
       <c r="P93" s="14">
         <v>9</v>
       </c>
-      <c r="Q93" s="47">
+      <c r="Q93" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>7</v>
       </c>
@@ -8430,11 +8462,11 @@
       <c r="P94" s="14">
         <v>53</v>
       </c>
-      <c r="Q94" s="47">
+      <c r="Q94" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>7</v>
       </c>
@@ -8483,11 +8515,11 @@
       <c r="P95" s="14">
         <v>301</v>
       </c>
-      <c r="Q95" s="47" t="s">
+      <c r="Q95" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>7</v>
       </c>
@@ -8536,11 +8568,11 @@
       <c r="P96" s="14">
         <v>186</v>
       </c>
-      <c r="Q96" s="47" t="s">
+      <c r="Q96" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>7</v>
       </c>
@@ -8589,11 +8621,11 @@
       <c r="P97" s="14">
         <v>20</v>
       </c>
-      <c r="Q97" s="47">
+      <c r="Q97" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>7</v>
       </c>
@@ -8642,11 +8674,11 @@
       <c r="P98" s="14">
         <v>35</v>
       </c>
-      <c r="Q98" s="47" t="s">
+      <c r="Q98" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>7</v>
       </c>
@@ -8695,11 +8727,11 @@
       <c r="P99" s="14">
         <v>63</v>
       </c>
-      <c r="Q99" s="47">
+      <c r="Q99" s="43">
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>7</v>
       </c>
@@ -8748,11 +8780,11 @@
       <c r="P100" s="14">
         <v>101</v>
       </c>
-      <c r="Q100" s="47">
+      <c r="Q100" s="43">
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>7</v>
       </c>
@@ -8801,11 +8833,11 @@
       <c r="P101" s="14">
         <v>18</v>
       </c>
-      <c r="Q101" s="47" t="s">
+      <c r="Q101" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>7</v>
       </c>
@@ -8854,11 +8886,11 @@
       <c r="P102" s="14">
         <v>46</v>
       </c>
-      <c r="Q102" s="47" t="s">
+      <c r="Q102" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>7</v>
       </c>
@@ -8907,11 +8939,11 @@
       <c r="P103" s="14">
         <v>97</v>
       </c>
-      <c r="Q103" s="47">
+      <c r="Q103" s="43">
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>7</v>
       </c>
@@ -8960,11 +8992,11 @@
       <c r="P104" s="14">
         <v>15</v>
       </c>
-      <c r="Q104" s="47" t="s">
+      <c r="Q104" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>7</v>
       </c>
@@ -9013,11 +9045,11 @@
       <c r="P105" s="14">
         <v>23</v>
       </c>
-      <c r="Q105" s="47">
+      <c r="Q105" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>7</v>
       </c>
@@ -9066,11 +9098,11 @@
       <c r="P106" s="14">
         <v>11</v>
       </c>
-      <c r="Q106" s="47" t="s">
+      <c r="Q106" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>7</v>
       </c>
@@ -9119,11 +9151,11 @@
       <c r="P107" s="14">
         <v>37</v>
       </c>
-      <c r="Q107" s="47" t="s">
+      <c r="Q107" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>7</v>
       </c>
@@ -9172,11 +9204,11 @@
       <c r="P108" s="14">
         <v>40</v>
       </c>
-      <c r="Q108" s="47">
+      <c r="Q108" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>7</v>
       </c>
@@ -9225,11 +9257,11 @@
       <c r="P109" s="14">
         <v>121</v>
       </c>
-      <c r="Q109" s="47">
+      <c r="Q109" s="43">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>8</v>
       </c>
@@ -9278,11 +9310,11 @@
       <c r="P110" s="14">
         <v>575</v>
       </c>
-      <c r="Q110" s="47">
+      <c r="Q110" s="43">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>8</v>
       </c>
@@ -9331,11 +9363,11 @@
       <c r="P111" s="14">
         <v>311</v>
       </c>
-      <c r="Q111" s="47">
+      <c r="Q111" s="43">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>8</v>
       </c>
@@ -9384,11 +9416,11 @@
       <c r="P112" s="14">
         <v>498</v>
       </c>
-      <c r="Q112" s="47">
+      <c r="Q112" s="43">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>8</v>
       </c>
@@ -9437,11 +9469,11 @@
       <c r="P113" s="14">
         <v>111</v>
       </c>
-      <c r="Q113" s="47">
+      <c r="Q113" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>8</v>
       </c>
@@ -9490,11 +9522,11 @@
       <c r="P114" s="14">
         <v>542</v>
       </c>
-      <c r="Q114" s="47">
+      <c r="Q114" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>8</v>
       </c>
@@ -9543,11 +9575,11 @@
       <c r="P115" s="14">
         <v>248</v>
       </c>
-      <c r="Q115" s="47">
+      <c r="Q115" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>8</v>
       </c>
@@ -9596,11 +9628,11 @@
       <c r="P116" s="14">
         <v>74</v>
       </c>
-      <c r="Q116" s="47">
+      <c r="Q116" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>8</v>
       </c>
@@ -9649,11 +9681,11 @@
       <c r="P117" s="14">
         <v>59</v>
       </c>
-      <c r="Q117" s="47">
+      <c r="Q117" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>9</v>
       </c>
@@ -9702,11 +9734,11 @@
       <c r="P118" s="14">
         <v>2281</v>
       </c>
-      <c r="Q118" s="47">
+      <c r="Q118" s="43">
         <v>1022</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>9</v>
       </c>
@@ -9755,11 +9787,11 @@
       <c r="P119" s="14">
         <v>219</v>
       </c>
-      <c r="Q119" s="47">
+      <c r="Q119" s="43">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>9</v>
       </c>
@@ -9808,11 +9840,11 @@
       <c r="P120" s="14">
         <v>256</v>
       </c>
-      <c r="Q120" s="47" t="s">
+      <c r="Q120" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>9</v>
       </c>
@@ -9861,11 +9893,11 @@
       <c r="P121" s="14">
         <v>244</v>
       </c>
-      <c r="Q121" s="47" t="s">
+      <c r="Q121" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>9</v>
       </c>
@@ -9914,11 +9946,11 @@
       <c r="P122" s="14">
         <v>83</v>
       </c>
-      <c r="Q122" s="47" t="s">
+      <c r="Q122" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>9</v>
       </c>
@@ -9967,11 +9999,11 @@
       <c r="P123" s="14">
         <v>76</v>
       </c>
-      <c r="Q123" s="47" t="s">
+      <c r="Q123" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>9</v>
       </c>
@@ -10020,11 +10052,11 @@
       <c r="P124" s="14">
         <v>47</v>
       </c>
-      <c r="Q124" s="47" t="s">
+      <c r="Q124" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>9</v>
       </c>
@@ -10073,11 +10105,11 @@
       <c r="P125" s="14">
         <v>60</v>
       </c>
-      <c r="Q125" s="47" t="s">
+      <c r="Q125" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>9</v>
       </c>
@@ -10126,11 +10158,11 @@
       <c r="P126" s="14">
         <v>292</v>
       </c>
-      <c r="Q126" s="47" t="s">
+      <c r="Q126" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>9</v>
       </c>
@@ -10179,11 +10211,11 @@
       <c r="P127" s="14">
         <v>74</v>
       </c>
-      <c r="Q127" s="47">
+      <c r="Q127" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>9</v>
       </c>
@@ -10232,11 +10264,11 @@
       <c r="P128" s="14">
         <v>61</v>
       </c>
-      <c r="Q128" s="47" t="s">
+      <c r="Q128" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>9</v>
       </c>
@@ -10285,11 +10317,11 @@
       <c r="P129" s="14">
         <v>136</v>
       </c>
-      <c r="Q129" s="47" t="s">
+      <c r="Q129" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>9</v>
       </c>
@@ -10338,11 +10370,11 @@
       <c r="P130" s="14">
         <v>117</v>
       </c>
-      <c r="Q130" s="47" t="s">
+      <c r="Q130" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>9</v>
       </c>
@@ -10391,11 +10423,11 @@
       <c r="P131" s="14">
         <v>146</v>
       </c>
-      <c r="Q131" s="47">
+      <c r="Q131" s="43">
         <v>2370</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>9</v>
       </c>
@@ -10444,11 +10476,11 @@
       <c r="P132" s="14">
         <v>72</v>
       </c>
-      <c r="Q132" s="47">
+      <c r="Q132" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>9</v>
       </c>
@@ -10497,11 +10529,11 @@
       <c r="P133" s="14">
         <v>46</v>
       </c>
-      <c r="Q133" s="47">
+      <c r="Q133" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>9</v>
       </c>
@@ -10550,11 +10582,11 @@
       <c r="P134" s="14">
         <v>294</v>
       </c>
-      <c r="Q134" s="47" t="s">
+      <c r="Q134" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>9</v>
       </c>
@@ -10603,11 +10635,11 @@
       <c r="P135" s="14">
         <v>32</v>
       </c>
-      <c r="Q135" s="47" t="s">
+      <c r="Q135" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>9</v>
       </c>
@@ -10656,11 +10688,11 @@
       <c r="P136" s="14">
         <v>167</v>
       </c>
-      <c r="Q136" s="47" t="s">
+      <c r="Q136" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>9</v>
       </c>
@@ -10709,11 +10741,11 @@
       <c r="P137" s="14">
         <v>1005</v>
       </c>
-      <c r="Q137" s="47">
+      <c r="Q137" s="43">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>9</v>
       </c>
@@ -10762,11 +10794,11 @@
       <c r="P138" s="14">
         <v>221</v>
       </c>
-      <c r="Q138" s="47" t="s">
+      <c r="Q138" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>9</v>
       </c>
@@ -10815,11 +10847,11 @@
       <c r="P139" s="14">
         <v>152</v>
       </c>
-      <c r="Q139" s="47" t="s">
+      <c r="Q139" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>9</v>
       </c>
@@ -10868,11 +10900,11 @@
       <c r="P140" s="14">
         <v>237</v>
       </c>
-      <c r="Q140" s="47">
+      <c r="Q140" s="43">
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>9</v>
       </c>
@@ -10921,11 +10953,11 @@
       <c r="P141" s="14">
         <v>53</v>
       </c>
-      <c r="Q141" s="47" t="s">
+      <c r="Q141" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>10</v>
       </c>
@@ -10974,11 +11006,11 @@
       <c r="P142" s="14">
         <v>658</v>
       </c>
-      <c r="Q142" s="47">
+      <c r="Q142" s="43">
         <v>670</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>10</v>
       </c>
@@ -11027,11 +11059,11 @@
       <c r="P143" s="14">
         <v>186</v>
       </c>
-      <c r="Q143" s="47">
+      <c r="Q143" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>10</v>
       </c>
@@ -11080,11 +11112,11 @@
       <c r="P144" s="14">
         <v>104</v>
       </c>
-      <c r="Q144" s="47" t="s">
+      <c r="Q144" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="10">
         <v>10</v>
       </c>
@@ -11133,11 +11165,11 @@
       <c r="P145" s="14">
         <v>76</v>
       </c>
-      <c r="Q145" s="47">
+      <c r="Q145" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>10</v>
       </c>
@@ -11186,11 +11218,11 @@
       <c r="P146" s="14">
         <v>68</v>
       </c>
-      <c r="Q146" s="47">
+      <c r="Q146" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>10</v>
       </c>
@@ -11239,11 +11271,11 @@
       <c r="P147" s="14">
         <v>243</v>
       </c>
-      <c r="Q147" s="47" t="s">
+      <c r="Q147" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>10</v>
       </c>
@@ -11292,11 +11324,11 @@
       <c r="P148" s="14">
         <v>71</v>
       </c>
-      <c r="Q148" s="47" t="s">
+      <c r="Q148" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>10</v>
       </c>
@@ -11345,11 +11377,11 @@
       <c r="P149" s="14">
         <v>151</v>
       </c>
-      <c r="Q149" s="47">
+      <c r="Q149" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>10</v>
       </c>
@@ -11398,11 +11430,11 @@
       <c r="P150" s="14">
         <v>77</v>
       </c>
-      <c r="Q150" s="47">
+      <c r="Q150" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>10</v>
       </c>
@@ -11451,11 +11483,11 @@
       <c r="P151" s="14">
         <v>337</v>
       </c>
-      <c r="Q151" s="47">
+      <c r="Q151" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>10</v>
       </c>
@@ -11504,11 +11536,11 @@
       <c r="P152" s="14">
         <v>29</v>
       </c>
-      <c r="Q152" s="47" t="s">
+      <c r="Q152" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>10</v>
       </c>
@@ -11557,11 +11589,11 @@
       <c r="P153" s="14">
         <v>53</v>
       </c>
-      <c r="Q153" s="47">
+      <c r="Q153" s="43">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>10</v>
       </c>
@@ -11610,11 +11642,11 @@
       <c r="P154" s="14">
         <v>195</v>
       </c>
-      <c r="Q154" s="47">
+      <c r="Q154" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>10</v>
       </c>
@@ -11663,11 +11695,11 @@
       <c r="P155" s="14">
         <v>182</v>
       </c>
-      <c r="Q155" s="47">
+      <c r="Q155" s="43">
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>10</v>
       </c>
@@ -11716,11 +11748,11 @@
       <c r="P156" s="14">
         <v>137</v>
       </c>
-      <c r="Q156" s="47" t="s">
+      <c r="Q156" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>10</v>
       </c>
@@ -11769,11 +11801,11 @@
       <c r="P157" s="14">
         <v>51</v>
       </c>
-      <c r="Q157" s="47" t="s">
+      <c r="Q157" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>10</v>
       </c>
@@ -11822,11 +11854,11 @@
       <c r="P158" s="14">
         <v>61</v>
       </c>
-      <c r="Q158" s="47" t="s">
+      <c r="Q158" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>10</v>
       </c>
@@ -11875,11 +11907,11 @@
       <c r="P159" s="14">
         <v>37</v>
       </c>
-      <c r="Q159" s="47" t="s">
+      <c r="Q159" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>10</v>
       </c>
@@ -11928,11 +11960,11 @@
       <c r="P160" s="14">
         <v>35</v>
       </c>
-      <c r="Q160" s="47">
+      <c r="Q160" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>10</v>
       </c>
@@ -11981,11 +12013,11 @@
       <c r="P161" s="14">
         <v>98</v>
       </c>
-      <c r="Q161" s="47">
+      <c r="Q161" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>10</v>
       </c>
@@ -12034,11 +12066,11 @@
       <c r="P162" s="14">
         <v>200</v>
       </c>
-      <c r="Q162" s="47">
+      <c r="Q162" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>11</v>
       </c>
@@ -12087,11 +12119,11 @@
       <c r="P163" s="14">
         <v>827</v>
       </c>
-      <c r="Q163" s="47">
+      <c r="Q163" s="43">
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>11</v>
       </c>
@@ -12140,11 +12172,11 @@
       <c r="P164" s="14">
         <v>193</v>
       </c>
-      <c r="Q164" s="47" t="s">
+      <c r="Q164" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>11</v>
       </c>
@@ -12193,11 +12225,11 @@
       <c r="P165" s="14">
         <v>99</v>
       </c>
-      <c r="Q165" s="47" t="s">
+      <c r="Q165" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>11</v>
       </c>
@@ -12246,11 +12278,11 @@
       <c r="P166" s="14">
         <v>42</v>
       </c>
-      <c r="Q166" s="47">
+      <c r="Q166" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>11</v>
       </c>
@@ -12299,11 +12331,11 @@
       <c r="P167" s="14">
         <v>224</v>
       </c>
-      <c r="Q167" s="47">
+      <c r="Q167" s="43">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>11</v>
       </c>
@@ -12352,11 +12384,11 @@
       <c r="P168" s="14">
         <v>241</v>
       </c>
-      <c r="Q168" s="47">
+      <c r="Q168" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>11</v>
       </c>
@@ -12405,11 +12437,11 @@
       <c r="P169" s="14">
         <v>288</v>
       </c>
-      <c r="Q169" s="47" t="s">
+      <c r="Q169" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>11</v>
       </c>
@@ -12458,11 +12490,11 @@
       <c r="P170" s="14">
         <v>221</v>
       </c>
-      <c r="Q170" s="47" t="s">
+      <c r="Q170" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>11</v>
       </c>
@@ -12511,11 +12543,11 @@
       <c r="P171" s="14">
         <v>163</v>
       </c>
-      <c r="Q171" s="47">
+      <c r="Q171" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>12</v>
       </c>
@@ -12564,11 +12596,11 @@
       <c r="P172" s="14">
         <v>393</v>
       </c>
-      <c r="Q172" s="47">
+      <c r="Q172" s="43">
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>12</v>
       </c>
@@ -12617,11 +12649,11 @@
       <c r="P173" s="14">
         <v>541</v>
       </c>
-      <c r="Q173" s="47">
+      <c r="Q173" s="43">
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>12</v>
       </c>
@@ -12670,11 +12702,11 @@
       <c r="P174" s="14">
         <v>90</v>
       </c>
-      <c r="Q174" s="47">
+      <c r="Q174" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="10">
         <v>12</v>
       </c>
@@ -12723,11 +12755,11 @@
       <c r="P175" s="14">
         <v>283</v>
       </c>
-      <c r="Q175" s="47">
+      <c r="Q175" s="43">
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="10">
         <v>12</v>
       </c>
@@ -12776,11 +12808,11 @@
       <c r="P176" s="14">
         <v>213</v>
       </c>
-      <c r="Q176" s="47">
+      <c r="Q176" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="10">
         <v>12</v>
       </c>
@@ -12829,11 +12861,11 @@
       <c r="P177" s="14">
         <v>290</v>
       </c>
-      <c r="Q177" s="47">
+      <c r="Q177" s="43">
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="10">
         <v>12</v>
       </c>
@@ -12882,11 +12914,11 @@
       <c r="P178" s="14">
         <v>355</v>
       </c>
-      <c r="Q178" s="47">
+      <c r="Q178" s="43">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="10">
         <v>12</v>
       </c>
@@ -12935,11 +12967,11 @@
       <c r="P179" s="14">
         <v>44</v>
       </c>
-      <c r="Q179" s="47" t="s">
+      <c r="Q179" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="10">
         <v>12</v>
       </c>
@@ -12988,11 +13020,11 @@
       <c r="P180" s="14">
         <v>256</v>
       </c>
-      <c r="Q180" s="47" t="s">
+      <c r="Q180" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="10">
         <v>12</v>
       </c>
@@ -13041,11 +13073,11 @@
       <c r="P181" s="14">
         <v>210</v>
       </c>
-      <c r="Q181" s="47">
+      <c r="Q181" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="10">
         <v>12</v>
       </c>
@@ -13094,11 +13126,11 @@
       <c r="P182" s="14">
         <v>81</v>
       </c>
-      <c r="Q182" s="47" t="s">
+      <c r="Q182" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="10">
         <v>12</v>
       </c>
@@ -13147,11 +13179,11 @@
       <c r="P183" s="14">
         <v>142</v>
       </c>
-      <c r="Q183" s="47">
+      <c r="Q183" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="10">
         <v>12</v>
       </c>
@@ -13200,11 +13232,11 @@
       <c r="P184" s="14">
         <v>255</v>
       </c>
-      <c r="Q184" s="47" t="s">
+      <c r="Q184" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="10">
         <v>12</v>
       </c>
@@ -13253,11 +13285,11 @@
       <c r="P185" s="14">
         <v>118</v>
       </c>
-      <c r="Q185" s="47">
+      <c r="Q185" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="10">
         <v>12</v>
       </c>
@@ -13306,11 +13338,11 @@
       <c r="P186" s="14">
         <v>657</v>
       </c>
-      <c r="Q186" s="47">
+      <c r="Q186" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="10">
         <v>12</v>
       </c>
@@ -13359,11 +13391,11 @@
       <c r="P187" s="14">
         <v>193</v>
       </c>
-      <c r="Q187" s="47" t="s">
+      <c r="Q187" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="10">
         <v>12</v>
       </c>
@@ -13412,11 +13444,11 @@
       <c r="P188" s="14">
         <v>390</v>
       </c>
-      <c r="Q188" s="47">
+      <c r="Q188" s="43">
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="10">
         <v>12</v>
       </c>
@@ -13465,11 +13497,11 @@
       <c r="P189" s="14">
         <v>100</v>
       </c>
-      <c r="Q189" s="47" t="s">
+      <c r="Q189" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="10">
         <v>12</v>
       </c>
@@ -13518,11 +13550,11 @@
       <c r="P190" s="14">
         <v>204</v>
       </c>
-      <c r="Q190" s="47">
+      <c r="Q190" s="43">
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="10">
         <v>12</v>
       </c>
@@ -13571,11 +13603,11 @@
       <c r="P191" s="14">
         <v>148</v>
       </c>
-      <c r="Q191" s="47" t="s">
+      <c r="Q191" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="10">
         <v>12</v>
       </c>
@@ -13624,11 +13656,11 @@
       <c r="P192" s="14">
         <v>76</v>
       </c>
-      <c r="Q192" s="47" t="s">
+      <c r="Q192" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="10">
         <v>12</v>
       </c>
@@ -13677,11 +13709,11 @@
       <c r="P193" s="14">
         <v>176</v>
       </c>
-      <c r="Q193" s="47">
+      <c r="Q193" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="10">
         <v>12</v>
       </c>
@@ -13730,11 +13762,11 @@
       <c r="P194" s="14">
         <v>120</v>
       </c>
-      <c r="Q194" s="47">
+      <c r="Q194" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="10">
         <v>12</v>
       </c>
@@ -13783,11 +13815,11 @@
       <c r="P195" s="14">
         <v>129</v>
       </c>
-      <c r="Q195" s="47" t="s">
+      <c r="Q195" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="10">
         <v>12</v>
       </c>
@@ -13836,11 +13868,11 @@
       <c r="P196" s="14">
         <v>109</v>
       </c>
-      <c r="Q196" s="47" t="s">
+      <c r="Q196" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="10">
         <v>12</v>
       </c>
@@ -13889,11 +13921,11 @@
       <c r="P197" s="14">
         <v>98</v>
       </c>
-      <c r="Q197" s="47" t="s">
+      <c r="Q197" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="10">
         <v>12</v>
       </c>
@@ -13942,11 +13974,11 @@
       <c r="P198" s="14">
         <v>86</v>
       </c>
-      <c r="Q198" s="47" t="s">
+      <c r="Q198" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="10">
         <v>12</v>
       </c>
@@ -13995,11 +14027,11 @@
       <c r="P199" s="14">
         <v>79</v>
       </c>
-      <c r="Q199" s="47" t="s">
+      <c r="Q199" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="10">
         <v>12</v>
       </c>
@@ -14048,11 +14080,11 @@
       <c r="P200" s="14">
         <v>80</v>
       </c>
-      <c r="Q200" s="47">
+      <c r="Q200" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="10">
         <v>12</v>
       </c>
@@ -14101,11 +14133,11 @@
       <c r="P201" s="14">
         <v>211</v>
       </c>
-      <c r="Q201" s="47" t="s">
+      <c r="Q201" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="10">
         <v>13</v>
       </c>
@@ -14154,11 +14186,11 @@
       <c r="P202" s="14">
         <v>1238</v>
       </c>
-      <c r="Q202" s="47">
+      <c r="Q202" s="43">
         <v>309</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="10">
         <v>13</v>
       </c>
@@ -14207,11 +14239,11 @@
       <c r="P203" s="14">
         <v>356</v>
       </c>
-      <c r="Q203" s="47">
+      <c r="Q203" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="10">
         <v>13</v>
       </c>
@@ -14260,11 +14292,11 @@
       <c r="P204" s="14">
         <v>111</v>
       </c>
-      <c r="Q204" s="47">
+      <c r="Q204" s="43">
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="10">
         <v>13</v>
       </c>
@@ -14313,11 +14345,11 @@
       <c r="P205" s="14">
         <v>303</v>
       </c>
-      <c r="Q205" s="47" t="s">
+      <c r="Q205" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="10">
         <v>13</v>
       </c>
@@ -14366,11 +14398,11 @@
       <c r="P206" s="14">
         <v>216</v>
       </c>
-      <c r="Q206" s="47" t="s">
+      <c r="Q206" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="10">
         <v>13</v>
       </c>
@@ -14419,11 +14451,11 @@
       <c r="P207" s="14">
         <v>153</v>
       </c>
-      <c r="Q207" s="47" t="s">
+      <c r="Q207" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="10">
         <v>13</v>
       </c>
@@ -14472,11 +14504,11 @@
       <c r="P208" s="14">
         <v>170</v>
       </c>
-      <c r="Q208" s="47">
+      <c r="Q208" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="10">
         <v>13</v>
       </c>
@@ -14525,11 +14557,11 @@
       <c r="P209" s="14">
         <v>347</v>
       </c>
-      <c r="Q209" s="47" t="s">
+      <c r="Q209" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="10">
         <v>13</v>
       </c>
@@ -14578,11 +14610,11 @@
       <c r="P210" s="14">
         <v>138</v>
       </c>
-      <c r="Q210" s="47" t="s">
+      <c r="Q210" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="10">
         <v>13</v>
       </c>
@@ -14631,11 +14663,11 @@
       <c r="P211" s="14">
         <v>179</v>
       </c>
-      <c r="Q211" s="47" t="s">
+      <c r="Q211" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="10">
         <v>13</v>
       </c>
@@ -14684,11 +14716,11 @@
       <c r="P212" s="14">
         <v>158</v>
       </c>
-      <c r="Q212" s="47" t="s">
+      <c r="Q212" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="10">
         <v>13</v>
       </c>
@@ -14737,11 +14769,11 @@
       <c r="P213" s="14">
         <v>448</v>
       </c>
-      <c r="Q213" s="47">
+      <c r="Q213" s="43">
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="10">
         <v>13</v>
       </c>
@@ -14790,11 +14822,11 @@
       <c r="P214" s="14">
         <v>192</v>
       </c>
-      <c r="Q214" s="47" t="s">
+      <c r="Q214" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="10">
         <v>13</v>
       </c>
@@ -14843,11 +14875,11 @@
       <c r="P215" s="14">
         <v>83</v>
       </c>
-      <c r="Q215" s="47" t="s">
+      <c r="Q215" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="10">
         <v>13</v>
       </c>
@@ -14896,11 +14928,11 @@
       <c r="P216" s="14">
         <v>121</v>
       </c>
-      <c r="Q216" s="47" t="s">
+      <c r="Q216" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="10">
         <v>13</v>
       </c>
@@ -14949,11 +14981,11 @@
       <c r="P217" s="14">
         <v>53</v>
       </c>
-      <c r="Q217" s="47" t="s">
+      <c r="Q217" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="10">
         <v>13</v>
       </c>
@@ -15002,11 +15034,11 @@
       <c r="P218" s="14">
         <v>297</v>
       </c>
-      <c r="Q218" s="47" t="s">
+      <c r="Q218" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="10">
         <v>13</v>
       </c>
@@ -15055,11 +15087,11 @@
       <c r="P219" s="14">
         <v>192</v>
       </c>
-      <c r="Q219" s="47" t="s">
+      <c r="Q219" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="10">
         <v>13</v>
       </c>
@@ -15108,11 +15140,11 @@
       <c r="P220" s="14">
         <v>177</v>
       </c>
-      <c r="Q220" s="47">
+      <c r="Q220" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="10">
         <v>13</v>
       </c>
@@ -15161,11 +15193,11 @@
       <c r="P221" s="14">
         <v>111</v>
       </c>
-      <c r="Q221" s="47">
+      <c r="Q221" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="10">
         <v>13</v>
       </c>
@@ -15214,11 +15246,11 @@
       <c r="P222" s="14">
         <v>86</v>
       </c>
-      <c r="Q222" s="47" t="s">
+      <c r="Q222" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="10">
         <v>13</v>
       </c>
@@ -15267,11 +15299,11 @@
       <c r="P223" s="14">
         <v>61</v>
       </c>
-      <c r="Q223" s="47" t="s">
+      <c r="Q223" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="10">
         <v>13</v>
       </c>
@@ -15320,11 +15352,11 @@
       <c r="P224" s="14">
         <v>109</v>
       </c>
-      <c r="Q224" s="47" t="s">
+      <c r="Q224" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="10">
         <v>13</v>
       </c>
@@ -15373,11 +15405,11 @@
       <c r="P225" s="14">
         <v>99</v>
       </c>
-      <c r="Q225" s="47" t="s">
+      <c r="Q225" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="10">
         <v>13</v>
       </c>
@@ -15426,11 +15458,11 @@
       <c r="P226" s="14">
         <v>94</v>
       </c>
-      <c r="Q226" s="47" t="s">
+      <c r="Q226" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="10">
         <v>13</v>
       </c>
@@ -15479,11 +15511,11 @@
       <c r="P227" s="14">
         <v>533</v>
       </c>
-      <c r="Q227" s="47">
+      <c r="Q227" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="10">
         <v>13</v>
       </c>
@@ -15532,11 +15564,11 @@
       <c r="P228" s="14">
         <v>213</v>
       </c>
-      <c r="Q228" s="47">
+      <c r="Q228" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="10">
         <v>13</v>
       </c>
@@ -15585,11 +15617,11 @@
       <c r="P229" s="14">
         <v>42</v>
       </c>
-      <c r="Q229" s="47" t="s">
+      <c r="Q229" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="10">
         <v>13</v>
       </c>
@@ -15638,11 +15670,11 @@
       <c r="P230" s="14">
         <v>28</v>
       </c>
-      <c r="Q230" s="47" t="s">
+      <c r="Q230" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="10">
         <v>13</v>
       </c>
@@ -15691,11 +15723,11 @@
       <c r="P231" s="14">
         <v>31</v>
       </c>
-      <c r="Q231" s="47">
+      <c r="Q231" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="10">
         <v>13</v>
       </c>
@@ -15744,11 +15776,11 @@
       <c r="P232" s="14">
         <v>54</v>
       </c>
-      <c r="Q232" s="47" t="s">
+      <c r="Q232" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="10">
         <v>13</v>
       </c>
@@ -15797,11 +15829,11 @@
       <c r="P233" s="14">
         <v>168</v>
       </c>
-      <c r="Q233" s="47" t="s">
+      <c r="Q233" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="10">
         <v>13</v>
       </c>
@@ -15850,11 +15882,11 @@
       <c r="P234" s="14">
         <v>13</v>
       </c>
-      <c r="Q234" s="47" t="s">
+      <c r="Q234" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="10">
         <v>14</v>
       </c>
@@ -15903,11 +15935,11 @@
       <c r="P235" s="14">
         <v>664</v>
       </c>
-      <c r="Q235" s="47">
+      <c r="Q235" s="43">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="10">
         <v>14</v>
       </c>
@@ -15956,11 +15988,11 @@
       <c r="P236" s="14">
         <v>109</v>
       </c>
-      <c r="Q236" s="47" t="s">
+      <c r="Q236" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="10">
         <v>14</v>
       </c>
@@ -16009,11 +16041,11 @@
       <c r="P237" s="14">
         <v>51</v>
       </c>
-      <c r="Q237" s="47" t="s">
+      <c r="Q237" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="10">
         <v>14</v>
       </c>
@@ -16062,11 +16094,11 @@
       <c r="P238" s="14">
         <v>204</v>
       </c>
-      <c r="Q238" s="47">
+      <c r="Q238" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="10">
         <v>14</v>
       </c>
@@ -16115,11 +16147,11 @@
       <c r="P239" s="14">
         <v>152</v>
       </c>
-      <c r="Q239" s="47" t="s">
+      <c r="Q239" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="10">
         <v>14</v>
       </c>
@@ -16168,11 +16200,11 @@
       <c r="P240" s="14">
         <v>560</v>
       </c>
-      <c r="Q240" s="47">
+      <c r="Q240" s="43">
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>14</v>
       </c>
@@ -16221,11 +16253,11 @@
       <c r="P241" s="14">
         <v>40</v>
       </c>
-      <c r="Q241" s="47" t="s">
+      <c r="Q241" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="10">
         <v>14</v>
       </c>
@@ -16274,11 +16306,11 @@
       <c r="P242" s="14">
         <v>98</v>
       </c>
-      <c r="Q242" s="47" t="s">
+      <c r="Q242" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>14</v>
       </c>
@@ -16327,11 +16359,11 @@
       <c r="P243" s="14">
         <v>226</v>
       </c>
-      <c r="Q243" s="47" t="s">
+      <c r="Q243" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="10">
         <v>14</v>
       </c>
@@ -16380,11 +16412,11 @@
       <c r="P244" s="14">
         <v>210</v>
       </c>
-      <c r="Q244" s="47" t="s">
+      <c r="Q244" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>14</v>
       </c>
@@ -16433,11 +16465,11 @@
       <c r="P245" s="14">
         <v>102</v>
       </c>
-      <c r="Q245" s="47">
+      <c r="Q245" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="10">
         <v>14</v>
       </c>
@@ -16486,11 +16518,11 @@
       <c r="P246" s="14">
         <v>457</v>
       </c>
-      <c r="Q246" s="47">
+      <c r="Q246" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="10">
         <v>14</v>
       </c>
@@ -16539,11 +16571,11 @@
       <c r="P247" s="14">
         <v>286</v>
       </c>
-      <c r="Q247" s="47">
+      <c r="Q247" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="10">
         <v>14</v>
       </c>
@@ -16592,11 +16624,11 @@
       <c r="P248" s="14">
         <v>167</v>
       </c>
-      <c r="Q248" s="47">
+      <c r="Q248" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="10">
         <v>14</v>
       </c>
@@ -16645,11 +16677,11 @@
       <c r="P249" s="14">
         <v>282</v>
       </c>
-      <c r="Q249" s="47">
+      <c r="Q249" s="43">
         <v>84</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="10">
         <v>14</v>
       </c>
@@ -16698,11 +16730,11 @@
       <c r="P250" s="14">
         <v>196</v>
       </c>
-      <c r="Q250" s="47">
+      <c r="Q250" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="10">
         <v>14</v>
       </c>
@@ -16751,11 +16783,11 @@
       <c r="P251" s="14">
         <v>42</v>
       </c>
-      <c r="Q251" s="47">
+      <c r="Q251" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="10">
         <v>14</v>
       </c>
@@ -16804,11 +16836,11 @@
       <c r="P252" s="14">
         <v>94</v>
       </c>
-      <c r="Q252" s="47">
+      <c r="Q252" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="10">
         <v>14</v>
       </c>
@@ -16857,11 +16889,11 @@
       <c r="P253" s="14">
         <v>177</v>
       </c>
-      <c r="Q253" s="47" t="s">
+      <c r="Q253" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="10">
         <v>14</v>
       </c>
@@ -16910,11 +16942,11 @@
       <c r="P254" s="14">
         <v>441</v>
       </c>
-      <c r="Q254" s="47">
+      <c r="Q254" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="10">
         <v>14</v>
       </c>
@@ -16963,11 +16995,11 @@
       <c r="P255" s="14">
         <v>46</v>
       </c>
-      <c r="Q255" s="47">
+      <c r="Q255" s="43">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="10">
         <v>15</v>
       </c>
@@ -17016,11 +17048,11 @@
       <c r="P256" s="14">
         <v>442</v>
       </c>
-      <c r="Q256" s="47">
+      <c r="Q256" s="43">
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>15</v>
       </c>
@@ -17069,11 +17101,11 @@
       <c r="P257" s="14">
         <v>121</v>
       </c>
-      <c r="Q257" s="47">
+      <c r="Q257" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="10">
         <v>15</v>
       </c>
@@ -17122,11 +17154,11 @@
       <c r="P258" s="14">
         <v>176</v>
       </c>
-      <c r="Q258" s="47">
+      <c r="Q258" s="43">
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="10">
         <v>15</v>
       </c>
@@ -17175,11 +17207,11 @@
       <c r="P259" s="14">
         <v>244</v>
       </c>
-      <c r="Q259" s="47">
+      <c r="Q259" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="10">
         <v>15</v>
       </c>
@@ -17228,11 +17260,11 @@
       <c r="P260" s="14">
         <v>42</v>
       </c>
-      <c r="Q260" s="47">
+      <c r="Q260" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="10">
         <v>15</v>
       </c>
@@ -17281,11 +17313,11 @@
       <c r="P261" s="14">
         <v>51</v>
       </c>
-      <c r="Q261" s="47">
+      <c r="Q261" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="10">
         <v>15</v>
       </c>
@@ -17334,11 +17366,11 @@
       <c r="P262" s="14">
         <v>145</v>
       </c>
-      <c r="Q262" s="47">
+      <c r="Q262" s="43">
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="10">
         <v>15</v>
       </c>
@@ -17387,11 +17419,11 @@
       <c r="P263" s="14">
         <v>201</v>
       </c>
-      <c r="Q263" s="47">
+      <c r="Q263" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="10">
         <v>16</v>
       </c>
@@ -17440,11 +17472,11 @@
       <c r="P264" s="14">
         <v>1520</v>
       </c>
-      <c r="Q264" s="47">
+      <c r="Q264" s="43">
         <v>625</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="10">
         <v>16</v>
       </c>
@@ -17493,11 +17525,11 @@
       <c r="P265" s="14">
         <v>173</v>
       </c>
-      <c r="Q265" s="47">
+      <c r="Q265" s="43">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="10">
         <v>16</v>
       </c>
@@ -17546,11 +17578,11 @@
       <c r="P266" s="14">
         <v>296</v>
       </c>
-      <c r="Q266" s="47">
+      <c r="Q266" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="10">
         <v>16</v>
       </c>
@@ -17599,11 +17631,11 @@
       <c r="P267" s="14">
         <v>291</v>
       </c>
-      <c r="Q267" s="47">
+      <c r="Q267" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="10">
         <v>16</v>
       </c>
@@ -17652,11 +17684,11 @@
       <c r="P268" s="14">
         <v>77</v>
       </c>
-      <c r="Q268" s="47">
+      <c r="Q268" s="43">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="10">
         <v>16</v>
       </c>
@@ -17705,11 +17737,11 @@
       <c r="P269" s="14">
         <v>170</v>
       </c>
-      <c r="Q269" s="47">
+      <c r="Q269" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="10">
         <v>16</v>
       </c>
@@ -17758,11 +17790,11 @@
       <c r="P270" s="14">
         <v>365</v>
       </c>
-      <c r="Q270" s="47">
+      <c r="Q270" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="10">
         <v>16</v>
       </c>
@@ -17811,11 +17843,11 @@
       <c r="P271" s="14">
         <v>261</v>
       </c>
-      <c r="Q271" s="47">
+      <c r="Q271" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="10">
         <v>16</v>
       </c>
@@ -17864,11 +17896,11 @@
       <c r="P272" s="14">
         <v>1016</v>
       </c>
-      <c r="Q272" s="47">
+      <c r="Q272" s="43">
         <v>78</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="10">
         <v>16</v>
       </c>
@@ -17917,11 +17949,11 @@
       <c r="P273" s="14">
         <v>268</v>
       </c>
-      <c r="Q273" s="47">
+      <c r="Q273" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="10">
         <v>16</v>
       </c>
@@ -17970,11 +18002,11 @@
       <c r="P274" s="14">
         <v>84</v>
       </c>
-      <c r="Q274" s="47" t="s">
+      <c r="Q274" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="10">
         <v>16</v>
       </c>
@@ -18023,11 +18055,11 @@
       <c r="P275" s="14">
         <v>311</v>
       </c>
-      <c r="Q275" s="47">
+      <c r="Q275" s="43">
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="10">
         <v>16</v>
       </c>
@@ -18076,11 +18108,11 @@
       <c r="P276" s="14">
         <v>408</v>
       </c>
-      <c r="Q276" s="47" t="s">
+      <c r="Q276" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="10">
         <v>16</v>
       </c>
@@ -18129,11 +18161,11 @@
       <c r="P277" s="14">
         <v>105</v>
       </c>
-      <c r="Q277" s="47">
+      <c r="Q277" s="43">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="10">
         <v>16</v>
       </c>
@@ -18182,11 +18214,11 @@
       <c r="P278" s="14">
         <v>362</v>
       </c>
-      <c r="Q278" s="47">
+      <c r="Q278" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="10">
         <v>16</v>
       </c>
@@ -18235,11 +18267,11 @@
       <c r="P279" s="14">
         <v>252</v>
       </c>
-      <c r="Q279" s="47">
+      <c r="Q279" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="10">
         <v>16</v>
       </c>
@@ -18288,11 +18320,11 @@
       <c r="P280" s="14">
         <v>158</v>
       </c>
-      <c r="Q280" s="47">
+      <c r="Q280" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="10">
         <v>17</v>
       </c>
@@ -18341,11 +18373,11 @@
       <c r="P281" s="14">
         <v>279</v>
       </c>
-      <c r="Q281" s="47">
+      <c r="Q281" s="43">
         <v>356</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="10">
         <v>17</v>
       </c>
@@ -18394,11 +18426,11 @@
       <c r="P282" s="14">
         <v>58</v>
       </c>
-      <c r="Q282" s="47">
+      <c r="Q282" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="10">
         <v>17</v>
       </c>
@@ -18447,11 +18479,11 @@
       <c r="P283" s="14">
         <v>288</v>
       </c>
-      <c r="Q283" s="47">
+      <c r="Q283" s="43">
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="10">
         <v>17</v>
       </c>
@@ -18500,11 +18532,11 @@
       <c r="P284" s="14">
         <v>174</v>
       </c>
-      <c r="Q284" s="47">
+      <c r="Q284" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="10">
         <v>17</v>
       </c>
@@ -18553,11 +18585,11 @@
       <c r="P285" s="14">
         <v>428</v>
       </c>
-      <c r="Q285" s="47">
+      <c r="Q285" s="43">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="10">
         <v>17</v>
       </c>
@@ -18606,11 +18638,11 @@
       <c r="P286" s="14">
         <v>93</v>
       </c>
-      <c r="Q286" s="47">
+      <c r="Q286" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="10">
         <v>17</v>
       </c>
@@ -18659,11 +18691,11 @@
       <c r="P287" s="14">
         <v>118</v>
       </c>
-      <c r="Q287" s="47">
+      <c r="Q287" s="43">
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="10">
         <v>17</v>
       </c>
@@ -18712,11 +18744,11 @@
       <c r="P288" s="14">
         <v>182</v>
       </c>
-      <c r="Q288" s="47">
+      <c r="Q288" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="10">
         <v>17</v>
       </c>
@@ -18765,11 +18797,11 @@
       <c r="P289" s="14">
         <v>247</v>
       </c>
-      <c r="Q289" s="47">
+      <c r="Q289" s="43">
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="10">
         <v>17</v>
       </c>
@@ -18818,11 +18850,11 @@
       <c r="P290" s="14">
         <v>457</v>
       </c>
-      <c r="Q290" s="47">
+      <c r="Q290" s="43">
         <v>45</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="10">
         <v>17</v>
       </c>
@@ -18871,11 +18903,11 @@
       <c r="P291" s="14">
         <v>229</v>
       </c>
-      <c r="Q291" s="47">
+      <c r="Q291" s="43">
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="10">
         <v>17</v>
       </c>
@@ -18924,11 +18956,11 @@
       <c r="P292" s="14">
         <v>357</v>
       </c>
-      <c r="Q292" s="47">
+      <c r="Q292" s="43">
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="10">
         <v>17</v>
       </c>
@@ -18977,11 +19009,11 @@
       <c r="P293" s="14">
         <v>215</v>
       </c>
-      <c r="Q293" s="47">
+      <c r="Q293" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="10">
         <v>17</v>
       </c>
@@ -19030,11 +19062,11 @@
       <c r="P294" s="14">
         <v>72</v>
       </c>
-      <c r="Q294" s="47" t="s">
+      <c r="Q294" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="10">
         <v>18</v>
       </c>
@@ -19083,11 +19115,11 @@
       <c r="P295" s="14">
         <v>1094</v>
       </c>
-      <c r="Q295" s="47">
+      <c r="Q295" s="43">
         <v>906</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="10">
         <v>18</v>
       </c>
@@ -19136,11 +19168,11 @@
       <c r="P296" s="14">
         <v>502</v>
       </c>
-      <c r="Q296" s="47">
+      <c r="Q296" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="10">
         <v>18</v>
       </c>
@@ -19189,11 +19221,11 @@
       <c r="P297" s="14">
         <v>354</v>
       </c>
-      <c r="Q297" s="47">
+      <c r="Q297" s="43">
         <v>90</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="10">
         <v>18</v>
       </c>
@@ -19242,11 +19274,11 @@
       <c r="P298" s="14">
         <v>921</v>
       </c>
-      <c r="Q298" s="47">
+      <c r="Q298" s="43">
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="10">
         <v>18</v>
       </c>
@@ -19295,11 +19327,11 @@
       <c r="P299" s="14">
         <v>519</v>
       </c>
-      <c r="Q299" s="47">
+      <c r="Q299" s="43">
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="10">
         <v>19</v>
       </c>
@@ -19348,11 +19380,11 @@
       <c r="P300" s="14">
         <v>664</v>
       </c>
-      <c r="Q300" s="47">
+      <c r="Q300" s="43">
         <v>735</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="10">
         <v>19</v>
       </c>
@@ -19401,11 +19433,11 @@
       <c r="P301" s="14">
         <v>209</v>
       </c>
-      <c r="Q301" s="47" t="s">
+      <c r="Q301" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="10">
         <v>19</v>
       </c>
@@ -19454,11 +19486,11 @@
       <c r="P302" s="14">
         <v>211</v>
       </c>
-      <c r="Q302" s="47">
+      <c r="Q302" s="43">
         <v>256</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="10">
         <v>19</v>
       </c>
@@ -19507,11 +19539,11 @@
       <c r="P303" s="14">
         <v>524</v>
       </c>
-      <c r="Q303" s="47">
+      <c r="Q303" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="10">
         <v>19</v>
       </c>
@@ -19560,11 +19592,11 @@
       <c r="P304" s="14">
         <v>186</v>
       </c>
-      <c r="Q304" s="47">
+      <c r="Q304" s="43">
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="10">
         <v>19</v>
       </c>
@@ -19613,11 +19645,11 @@
       <c r="P305" s="14">
         <v>101</v>
       </c>
-      <c r="Q305" s="47" t="s">
+      <c r="Q305" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="10">
         <v>19</v>
       </c>
@@ -19666,11 +19698,11 @@
       <c r="P306" s="14">
         <v>109</v>
       </c>
-      <c r="Q306" s="47" t="s">
+      <c r="Q306" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="10">
         <v>19</v>
       </c>
@@ -19719,11 +19751,11 @@
       <c r="P307" s="14">
         <v>78</v>
       </c>
-      <c r="Q307" s="47" t="s">
+      <c r="Q307" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="10">
         <v>19</v>
       </c>
@@ -19772,11 +19804,11 @@
       <c r="P308" s="14">
         <v>163</v>
       </c>
-      <c r="Q308" s="47" t="s">
+      <c r="Q308" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="10">
         <v>19</v>
       </c>
@@ -19825,11 +19857,11 @@
       <c r="P309" s="14">
         <v>71</v>
       </c>
-      <c r="Q309" s="47" t="s">
+      <c r="Q309" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="10">
         <v>19</v>
       </c>
@@ -19878,11 +19910,11 @@
       <c r="P310" s="14">
         <v>107</v>
       </c>
-      <c r="Q310" s="47" t="s">
+      <c r="Q310" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="10">
         <v>20</v>
       </c>
@@ -19931,11 +19963,11 @@
       <c r="P311" s="14">
         <v>1109</v>
       </c>
-      <c r="Q311" s="47">
+      <c r="Q311" s="43">
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="10">
         <v>20</v>
       </c>
@@ -19984,11 +20016,11 @@
       <c r="P312" s="14">
         <v>87</v>
       </c>
-      <c r="Q312" s="47">
+      <c r="Q312" s="43">
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="10">
         <v>20</v>
       </c>
@@ -20037,11 +20069,11 @@
       <c r="P313" s="14">
         <v>81</v>
       </c>
-      <c r="Q313" s="47">
+      <c r="Q313" s="43">
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="10">
         <v>20</v>
       </c>
@@ -20090,11 +20122,11 @@
       <c r="P314" s="14">
         <v>282</v>
       </c>
-      <c r="Q314" s="47">
+      <c r="Q314" s="43">
         <v>98</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="10">
         <v>20</v>
       </c>
@@ -20143,11 +20175,11 @@
       <c r="P315" s="14">
         <v>282</v>
       </c>
-      <c r="Q315" s="47">
+      <c r="Q315" s="43">
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="10">
         <v>20</v>
       </c>
@@ -20196,11 +20228,11 @@
       <c r="P316" s="14">
         <v>113</v>
       </c>
-      <c r="Q316" s="47">
+      <c r="Q316" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="10">
         <v>20</v>
       </c>
@@ -20249,11 +20281,11 @@
       <c r="P317" s="14">
         <v>560</v>
       </c>
-      <c r="Q317" s="47">
+      <c r="Q317" s="43">
         <v>198</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="10">
         <v>20</v>
       </c>
@@ -20302,11 +20334,11 @@
       <c r="P318" s="14">
         <v>148</v>
       </c>
-      <c r="Q318" s="47">
+      <c r="Q318" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="10">
         <v>20</v>
       </c>
@@ -20355,11 +20387,11 @@
       <c r="P319" s="14">
         <v>220</v>
       </c>
-      <c r="Q319" s="47">
+      <c r="Q319" s="43">
         <v>32</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="10">
         <v>20</v>
       </c>
@@ -20408,11 +20440,11 @@
       <c r="P320" s="14">
         <v>66</v>
       </c>
-      <c r="Q320" s="47">
+      <c r="Q320" s="43">
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="10">
         <v>20</v>
       </c>
@@ -20461,11 +20493,11 @@
       <c r="P321" s="14">
         <v>180</v>
       </c>
-      <c r="Q321" s="47">
+      <c r="Q321" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="10">
         <v>21</v>
       </c>
@@ -20514,11 +20546,11 @@
       <c r="P322" s="14">
         <v>999</v>
       </c>
-      <c r="Q322" s="47">
+      <c r="Q322" s="43">
         <v>481</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="10">
         <v>21</v>
       </c>
@@ -20567,11 +20599,11 @@
       <c r="P323" s="14">
         <v>225</v>
       </c>
-      <c r="Q323" s="47">
+      <c r="Q323" s="43">
         <v>29</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="10">
         <v>21</v>
       </c>
@@ -20620,11 +20652,11 @@
       <c r="P324" s="14">
         <v>127</v>
       </c>
-      <c r="Q324" s="47">
+      <c r="Q324" s="43">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="10">
         <v>21</v>
       </c>
@@ -20673,11 +20705,11 @@
       <c r="P325" s="14">
         <v>63</v>
       </c>
-      <c r="Q325" s="47" t="s">
+      <c r="Q325" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="10">
         <v>21</v>
       </c>
@@ -20726,11 +20758,11 @@
       <c r="P326" s="14">
         <v>54</v>
       </c>
-      <c r="Q326" s="47">
+      <c r="Q326" s="43">
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="10">
         <v>21</v>
       </c>
@@ -20779,11 +20811,11 @@
       <c r="P327" s="14">
         <v>299</v>
       </c>
-      <c r="Q327" s="47">
+      <c r="Q327" s="43">
         <v>86</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="10">
         <v>21</v>
       </c>
@@ -20832,11 +20864,11 @@
       <c r="P328" s="14">
         <v>237</v>
       </c>
-      <c r="Q328" s="47">
+      <c r="Q328" s="43">
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="10">
         <v>22</v>
       </c>
@@ -20885,11 +20917,11 @@
       <c r="P329" s="14">
         <v>920</v>
       </c>
-      <c r="Q329" s="47">
+      <c r="Q329" s="43">
         <v>421</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="10">
         <v>22</v>
       </c>
@@ -20938,11 +20970,11 @@
       <c r="P330" s="14">
         <v>248</v>
       </c>
-      <c r="Q330" s="47">
+      <c r="Q330" s="43">
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="10">
         <v>22</v>
       </c>
@@ -20991,11 +21023,11 @@
       <c r="P331" s="14">
         <v>221</v>
       </c>
-      <c r="Q331" s="47" t="s">
+      <c r="Q331" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="10">
         <v>22</v>
       </c>
@@ -21044,11 +21076,11 @@
       <c r="P332" s="14">
         <v>132</v>
       </c>
-      <c r="Q332" s="47" t="s">
+      <c r="Q332" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="10">
         <v>22</v>
       </c>
@@ -21097,11 +21129,11 @@
       <c r="P333" s="14">
         <v>432</v>
       </c>
-      <c r="Q333" s="47">
+      <c r="Q333" s="43">
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="10">
         <v>22</v>
       </c>
@@ -21150,11 +21182,11 @@
       <c r="P334" s="14">
         <v>93</v>
       </c>
-      <c r="Q334" s="47" t="s">
+      <c r="Q334" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="10">
         <v>22</v>
       </c>
@@ -21203,11 +21235,11 @@
       <c r="P335" s="14">
         <v>145</v>
       </c>
-      <c r="Q335" s="47" t="s">
+      <c r="Q335" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="10">
         <v>22</v>
       </c>
@@ -21256,11 +21288,11 @@
       <c r="P336" s="14">
         <v>47</v>
       </c>
-      <c r="Q336" s="47" t="s">
+      <c r="Q336" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="10">
         <v>22</v>
       </c>
@@ -21309,11 +21341,11 @@
       <c r="P337" s="14">
         <v>45</v>
       </c>
-      <c r="Q337" s="47" t="s">
+      <c r="Q337" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="10">
         <v>22</v>
       </c>
@@ -21362,11 +21394,11 @@
       <c r="P338" s="14">
         <v>51</v>
       </c>
-      <c r="Q338" s="47" t="s">
+      <c r="Q338" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="10">
         <v>22</v>
       </c>
@@ -21415,11 +21447,11 @@
       <c r="P339" s="14">
         <v>125</v>
       </c>
-      <c r="Q339" s="47" t="s">
+      <c r="Q339" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="10">
         <v>22</v>
       </c>
@@ -21468,11 +21500,11 @@
       <c r="P340" s="14">
         <v>242</v>
       </c>
-      <c r="Q340" s="47">
+      <c r="Q340" s="43">
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="10">
         <v>22</v>
       </c>
@@ -21521,11 +21553,11 @@
       <c r="P341" s="14">
         <v>122</v>
       </c>
-      <c r="Q341" s="47" t="s">
+      <c r="Q341" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="10">
         <v>22</v>
       </c>
@@ -21574,11 +21606,11 @@
       <c r="P342" s="14">
         <v>284</v>
       </c>
-      <c r="Q342" s="47" t="s">
+      <c r="Q342" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="10">
         <v>22</v>
       </c>
@@ -21627,11 +21659,11 @@
       <c r="P343" s="14">
         <v>74</v>
       </c>
-      <c r="Q343" s="47" t="s">
+      <c r="Q343" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="10">
         <v>22</v>
       </c>
@@ -21680,64 +21712,64 @@
       <c r="P344" s="14">
         <v>52</v>
       </c>
-      <c r="Q344" s="47" t="s">
+      <c r="Q344" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A345" s="43">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A345" s="39">
         <v>22</v>
       </c>
-      <c r="B345" s="44" t="s">
+      <c r="B345" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C345" s="45">
+      <c r="C345" s="41">
         <v>2217</v>
       </c>
       <c r="D345" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="E345" s="46">
+      <c r="E345" s="42">
         <v>22710</v>
       </c>
-      <c r="F345" s="46">
+      <c r="F345" s="42">
         <v>5588</v>
       </c>
-      <c r="G345" s="46">
+      <c r="G345" s="42">
         <v>3824</v>
       </c>
-      <c r="H345" s="46">
+      <c r="H345" s="42">
         <v>10360</v>
       </c>
-      <c r="I345" s="46">
+      <c r="I345" s="42">
         <v>403</v>
       </c>
-      <c r="J345" s="46">
+      <c r="J345" s="42">
         <v>1712</v>
       </c>
-      <c r="K345" s="46">
+      <c r="K345" s="42">
         <v>188</v>
       </c>
-      <c r="L345" s="46">
+      <c r="L345" s="42">
         <v>100</v>
       </c>
-      <c r="M345" s="46">
+      <c r="M345" s="42">
         <v>43</v>
       </c>
-      <c r="N345" s="46">
+      <c r="N345" s="42">
         <v>36</v>
       </c>
-      <c r="O345" s="46">
+      <c r="O345" s="42">
         <v>361</v>
       </c>
-      <c r="P345" s="46">
+      <c r="P345" s="42">
         <v>95</v>
       </c>
-      <c r="Q345" s="48" t="s">
+      <c r="Q345" s="44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="21" t="s">
         <v>362</v>
       </c>
@@ -21769,4 +21801,80 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618FD833-BA27-4D5E-9F61-09420735E07B}">
+  <dimension ref="C4:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>